--- a/va_facility_data_2025-02-20/Zanesville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Zanesville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Zanesville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Zanesville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R1080499e266646749e1fc8027fd7d301"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re027c18985be4eb8a42d40318131f126"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R444bc446970e49a7a76b4479993ba472"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Raa917095206c4b4c8917cdf0abfeb20b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd0a01f1c7b1f4a0ab2636328f2b0c7b6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4af792eb5d844e8fb71dbcb72fa08797"/>
   </x:sheets>
 </x:workbook>
 </file>
